--- a/biology/Écologie/Gradient_environnemental/Gradient_environnemental.xlsx
+++ b/biology/Écologie/Gradient_environnemental/Gradient_environnemental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En écologie, un gradient environnemental est une variation, généralement continue, d'un ou plusieurs facteurs environnementaux à travers l'espace[1].
-Mathématiquement, un gradient environnemental peut être défini comme une fonction représentant la relation entre un groupe de variables environnementales et les caractéristiques des organismes[2]. Dans le cadre de la recherche en écologie, il est préférable que cette relation soit causale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En écologie, un gradient environnemental est une variation, généralement continue, d'un ou plusieurs facteurs environnementaux à travers l'espace.
+Mathématiquement, un gradient environnemental peut être défini comme une fonction représentant la relation entre un groupe de variables environnementales et les caractéristiques des organismes. Dans le cadre de la recherche en écologie, il est préférable que cette relation soit causale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Types de gradients</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les gradients environnementaux peuvent être de différents types[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les gradients environnementaux peuvent être de différents types:
 Gradient de ressources (par exemple teneur en azote ou eau dans le sol)
 Gradient direct, caractérisé par un seul facteur (par exemple, température, pH)
 Gradient indirect, caractérisé par la covariation de plusieurs facteurs (par exemple, altitude, latitude, niveau d'anthropisation)
@@ -546,10 +560,12 @@
           <t>Importance des gradients en écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La distribution des individus d'une espèce le long de gradients environnementaux est une des bases de la théorie des niches écologiques. 
-L'étude des gradients est un des outils d'étude de l'écologie fonctionnelle et de la théorie des filtres environnementaux, qui étudient la manière dont les gradients environnementaux sélectionnent les organismes en fonction de leurs traits fonctionnels de réponse et déterminent ainsi l'assemblage des communautés[3]. Ces études permettent de mettre en évidence la présence de stratégies écologiques distinctes aux différents points d'un gradient. Par exemple, les espèces à stratégie acquisitive sont présentes dans les environnements aux sols les plus fertiles, tandis que les espèces à stratégie conservatrice sont présentes dans les environnements plus stressants.
+L'étude des gradients est un des outils d'étude de l'écologie fonctionnelle et de la théorie des filtres environnementaux, qui étudient la manière dont les gradients environnementaux sélectionnent les organismes en fonction de leurs traits fonctionnels de réponse et déterminent ainsi l'assemblage des communautés. Ces études permettent de mettre en évidence la présence de stratégies écologiques distinctes aux différents points d'un gradient. Par exemple, les espèces à stratégie acquisitive sont présentes dans les environnements aux sols les plus fertiles, tandis que les espèces à stratégie conservatrice sont présentes dans les environnements plus stressants.
 </t>
         </is>
       </c>
